--- a/data/apd_acv.xlsx
+++ b/data/apd_acv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Alt</t>
-  </si>
-  <si>
-    <t>Two Year Alt</t>
-  </si>
-  <si>
-    <t>Three Year Alt</t>
-  </si>
-  <si>
-    <t>Five Year Alt</t>
-  </si>
-  <si>
-    <t>Ten Year Alt</t>
+    <t>One Year Alt mean</t>
+  </si>
+  <si>
+    <t>One Year Alt std</t>
+  </si>
+  <si>
+    <t>Two Year Alt mean</t>
+  </si>
+  <si>
+    <t>Two Year Alt std</t>
+  </si>
+  <si>
+    <t>Three Year Alt mean</t>
+  </si>
+  <si>
+    <t>Three Year Alt std</t>
+  </si>
+  <si>
+    <t>Five Year Alt mean</t>
+  </si>
+  <si>
+    <t>Five Year Alt std</t>
+  </si>
+  <si>
+    <t>Ten Year Alt mean</t>
+  </si>
+  <si>
+    <t>Ten Year Alt std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.9006265310820984</v>
+        <v>0.9080895633060564</v>
       </c>
       <c r="D2">
-        <v>0.895703719122953</v>
+        <v>0.009108492687851251</v>
       </c>
       <c r="E2">
-        <v>0.8888504753673294</v>
+        <v>0.8966449202536892</v>
       </c>
       <c r="F2">
-        <v>0.8811436599561944</v>
+        <v>0.008260723024058286</v>
       </c>
       <c r="G2">
-        <v>0.8802699385829322</v>
+        <v>0.8874894370078259</v>
+      </c>
+      <c r="H2">
+        <v>0.01297015642625823</v>
+      </c>
+      <c r="I2">
+        <v>0.8781015495216818</v>
+      </c>
+      <c r="J2">
+        <v>0.0178074543301257</v>
+      </c>
+      <c r="K2">
+        <v>0.8703992760999887</v>
+      </c>
+      <c r="L2">
+        <v>0.01123659427447213</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.9044853106657733</v>
+        <v>0.910854055771828</v>
       </c>
       <c r="D3">
-        <v>0.8983692756036635</v>
+        <v>0.008813618922141053</v>
       </c>
       <c r="E3">
-        <v>0.8957649092480555</v>
+        <v>0.9010305415027169</v>
       </c>
       <c r="F3">
-        <v>0.8863783519638385</v>
+        <v>0.008235299189123073</v>
       </c>
       <c r="G3">
-        <v>0.8842517523220155</v>
+        <v>0.8941401418196515</v>
+      </c>
+      <c r="H3">
+        <v>0.01129540148019561</v>
+      </c>
+      <c r="I3">
+        <v>0.8864302285616084</v>
+      </c>
+      <c r="J3">
+        <v>0.02053125033837994</v>
+      </c>
+      <c r="K3">
+        <v>0.8782462391132224</v>
+      </c>
+      <c r="L3">
+        <v>0.0141767843408919</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.8564086213988045</v>
+        <v>0.8550544212282514</v>
       </c>
       <c r="D4">
-        <v>0.8683806550097142</v>
+        <v>0.007959502690768923</v>
       </c>
       <c r="E4">
-        <v>0.8599827139152982</v>
+        <v>0.8607326781019868</v>
       </c>
       <c r="F4">
-        <v>0.8783388744906062</v>
+        <v>0.01213033894896635</v>
       </c>
       <c r="G4">
-        <v>0.8779304891675886</v>
+        <v>0.8584369220971672</v>
+      </c>
+      <c r="H4">
+        <v>0.01956516564143236</v>
+      </c>
+      <c r="I4">
+        <v>0.867693475396689</v>
+      </c>
+      <c r="J4">
+        <v>0.01673637578672741</v>
+      </c>
+      <c r="K4">
+        <v>0.8727734419183349</v>
+      </c>
+      <c r="L4">
+        <v>0.01201148350833514</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.8716836147377081</v>
+        <v>0.8794597600699132</v>
       </c>
       <c r="D5">
-        <v>0.8807073272273105</v>
+        <v>0.01154013604599403</v>
       </c>
       <c r="E5">
-        <v>0.8710458081244598</v>
+        <v>0.8747267503591282</v>
       </c>
       <c r="F5">
-        <v>0.8775919090377584</v>
+        <v>0.01430326181444527</v>
       </c>
       <c r="G5">
-        <v>0.8727686550568183</v>
+        <v>0.8727869765960834</v>
+      </c>
+      <c r="H5">
+        <v>0.01465708651317786</v>
+      </c>
+      <c r="I5">
+        <v>0.8773450478318153</v>
+      </c>
+      <c r="J5">
+        <v>0.01116752617209989</v>
+      </c>
+      <c r="K5">
+        <v>0.8722944237077254</v>
+      </c>
+      <c r="L5">
+        <v>0.007756545282219045</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.8781143535632339</v>
+        <v>0.8729554302057678</v>
       </c>
       <c r="D6">
-        <v>0.8688788509575354</v>
+        <v>0.01615956317998972</v>
       </c>
       <c r="E6">
-        <v>0.8687986171132238</v>
+        <v>0.8711825960561205</v>
       </c>
       <c r="F6">
-        <v>0.8596549647896541</v>
+        <v>0.01602052000354388</v>
       </c>
       <c r="G6">
-        <v>0.8453618719988139</v>
+        <v>0.85651629456358</v>
+      </c>
+      <c r="H6">
+        <v>0.01105774845844906</v>
+      </c>
+      <c r="I6">
+        <v>0.8576588188119378</v>
+      </c>
+      <c r="J6">
+        <v>0.006769903707977678</v>
+      </c>
+      <c r="K6">
+        <v>0.8668397240131208</v>
+      </c>
+      <c r="L6">
+        <v>0.02219782299725197</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.848045129897846</v>
+        <v>0.9111808479648313</v>
       </c>
       <c r="D7">
-        <v>0.8465507910074936</v>
+        <v>0.01001850691035889</v>
       </c>
       <c r="E7">
-        <v>0.8439066551426102</v>
+        <v>0.9044012355142202</v>
       </c>
       <c r="F7">
-        <v>0.8329310540415544</v>
+        <v>0.01081958017106631</v>
       </c>
       <c r="G7">
-        <v>0.7963910265737952</v>
+        <v>0.8997373029772329</v>
+      </c>
+      <c r="H7">
+        <v>0.01399342815343371</v>
+      </c>
+      <c r="I7">
+        <v>0.8917314687517901</v>
+      </c>
+      <c r="J7">
+        <v>0.01658942683965783</v>
+      </c>
+      <c r="K7">
+        <v>0.8941805225653205</v>
+      </c>
+      <c r="L7">
+        <v>0.01180130654359762</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.8117020588608103</v>
+        <v>0.9103651915997986</v>
       </c>
       <c r="D8">
-        <v>0.823889952817097</v>
+        <v>0.006369422155240269</v>
       </c>
       <c r="E8">
-        <v>0.8354364736387208</v>
+        <v>0.9027151787691416</v>
       </c>
       <c r="F8">
-        <v>0.8258287738771521</v>
+        <v>0.008289604230862552</v>
       </c>
       <c r="G8">
-        <v>0.8069401011995134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.9048075007825173</v>
-      </c>
-      <c r="D9">
-        <v>0.9023674715514849</v>
-      </c>
-      <c r="E9">
-        <v>0.8945548833189282</v>
-      </c>
-      <c r="F9">
-        <v>0.8936647556218749</v>
-      </c>
-      <c r="G9">
-        <v>0.8908118748816</v>
+        <v>0.8986895766230265</v>
+      </c>
+      <c r="H8">
+        <v>0.01381416869271208</v>
+      </c>
+      <c r="I8">
+        <v>0.8955146932462622</v>
+      </c>
+      <c r="J8">
+        <v>0.01551327766402548</v>
+      </c>
+      <c r="K8">
+        <v>0.8939384684990385</v>
+      </c>
+      <c r="L8">
+        <v>0.006441704031766589</v>
       </c>
     </row>
   </sheetData>
